--- a/TuoFengZiJiaApi.xlsx
+++ b/TuoFengZiJiaApi.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Travels" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Thumb" sheetId="3" r:id="rId3"/>
+    <sheet name="Comment" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,136 @@
       </rPr>
       <t>","createTime": "15-11-18 03:42","thembCount": "","commentCount": ""}]</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thumb/Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int travelPartId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>true:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>true:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment/Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int travelPartId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int ? toUserId(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被评论人，可为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thumb/Delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,10 +476,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -655,7 +785,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -680,7 +810,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -689,37 +819,37 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -738,15 +868,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="50.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -759,7 +889,7 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -767,7 +897,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
@@ -776,22 +906,22 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
@@ -800,22 +930,22 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -824,92 +954,92 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -920,7 +1050,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -947,13 +1077,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="43.375" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -966,21 +1101,69 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -993,7 +1176,43 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TuoFengZiJiaApi.xlsx
+++ b/TuoFengZiJiaApi.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Travels" sheetId="2" r:id="rId2"/>
     <sheet name="Thumb" sheetId="3" r:id="rId3"/>
     <sheet name="Comment" sheetId="4" r:id="rId4"/>
+    <sheet name="oss图片上传" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +425,83 @@
   </si>
   <si>
     <t>Thumb/Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://oss-cn-beijing.aliyuncs.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bucketName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funnycar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/yyyyMMdd/username/yyyyMMddmmhhss_XXX.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XXX  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示三位随机数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://appimg.impinker.cn/+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片文件命名规则（文件名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w358YdbTYPQvTD8j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +526,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -470,10 +563,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -482,15 +579,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -810,7 +915,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -819,37 +924,37 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -897,7 +1002,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
@@ -906,22 +1011,22 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
@@ -930,22 +1035,22 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -954,110 +1059,110 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1079,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
@@ -1102,40 +1207,40 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1177,36 +1282,36 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1216,4 +1321,87 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="48.125" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8"/>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/TuoFengZiJiaApi.xlsx
+++ b/TuoFengZiJiaApi.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,56 +452,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/yyyyMMdd/username/yyyyMMddmmhhss_XXX.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XXX  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示三位随机数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://appimg.impinker.cn/+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片文件命名规则（文件名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>固定参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/yyyyMMdd/username/yyyyMMddmmhhss_XXX.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">XXX  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示三位随机数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>http://appimg.impinker.cn/+</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片文件命名规则（文件名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w358YdbTYPQvTD8j</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>securityToken</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home/GetOssSecurityToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回格式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"AccessKeyId": "STS.oFoXKZfLvCh4oZ92i3IL","AccessKeySecret": "7nqYDt9RGi2Lb0W0sLsVp5fPaxltPf9HHDz7EYHT","Expiration": "2015-12-19T16:38:54Z","SecurityToken": "CAES4gIIARKAARYypXpYDEqRdNs5M//pI0s70iW4iHDhKDWlenwRE8GeUOhEYW0npTCyaE8+0l59ybC6DNrMsxnIIKmKjjLC0EG/AKJoJO+H4miD5pqMHth8wzB2cWsHMMaOGVT0R57bHd2qrZGCSDU1SsNjnA212XtkrxdvajPJvDHsnB7g+HITGhhTVFMub0ZvWEtaZkx2Q2g0b1o5MmkzSUwiEjMyNzYwMDU1MDQ0NjU4NTkyNyoFYWxpY2Uwke3u2JsqOgZSc2FNRDVCSgoBMRpFCgVBbGxvdxIbCgxBY3Rpb25FcXVhbHMSBkFjdGlvbhoDCgEqEh8KDlJlc291cmNlRXF1YWxzEghSZXNvdXJjZRoDCgEqShAxNzI0Mzc3MDU3MDc3MTMwUgUyNjg0MloPQXNzdW1lZFJvbGVVc2VyYABqEjMyNzYwMDU1MDQ0NjU4NTkyN3ILbXlmaXJzdHJvbGU="}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +584,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -570,7 +616,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -590,6 +636,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1325,81 +1374,104 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="48.125" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="48.125" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8"/>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A4"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
